--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0231FE-BB71-44F0-B344-537475874C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -235,10 +234,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主管覆核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主管同意日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -264,19 +259,25 @@
   </si>
   <si>
     <t>Y:是
-N:否</t>
+N:否
+空白:未註記</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管覆核</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y:同意
-N:不同意</t>
+N:不同意
+空白:未覆核</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -583,7 +584,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,23 +675,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -726,23 +710,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -918,11 +885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1158,7 +1125,7 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1179,7 +1146,7 @@
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1187,7 +1154,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>12</v>
@@ -1208,7 +1175,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>22</v>
@@ -1223,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>61</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>22</v>
@@ -1236,7 +1203,7 @@
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1356,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1396,10 +1363,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>51</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E17174-76C1-47D4-BF8A-9B679A4724FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -271,13 +272,21 @@
     <t>Y:同意
 N:不同意
 空白:未覆核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EntryDate &gt;= ,AND EntryDate &lt;= ,AND Factor = , AND CustNo = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEntryDateRangeFactorCustNoFirst</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -584,7 +593,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -675,6 +684,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -710,6 +736,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -885,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1323,12 +1366,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1372,6 +1415,17 @@
         <v>51</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E17174-76C1-47D4-BF8A-9B679A4724FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD591DB-D371-426D-AA92-69ADFFC1E8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -280,6 +290,10 @@
   </si>
   <si>
     <t>findEntryDateRangeFactorCustNoFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/8/25長度放大150</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -931,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1185,9 +1199,12 @@
         <v>42</v>
       </c>
       <c r="E15" s="33">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F15" s="27"/>
+      <c r="G15" s="25" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
@@ -1263,10 +1280,12 @@
         <v>42</v>
       </c>
       <c r="E19" s="33">
-        <v>50</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="10"/>
+        <v>150</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="25" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
@@ -1369,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD591DB-D371-426D-AA92-69ADFFC1E8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF31C60E-BC4A-48BE-966B-8883D6EAE170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>2022/8/25長度放大150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:樣態1
+2:樣態2
+3:樣態3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,10 +502,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -512,9 +518,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,9 +529,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -541,9 +541,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -580,7 +577,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -603,6 +600,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -946,25 +946,25 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" style="25" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" style="22" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
@@ -976,78 +976,78 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="39"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -1066,297 +1066,299 @@
       <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>8</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+    <row r="10" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>2</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="23"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="41" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>7</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>16</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="30">
         <v>150</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="29">
         <v>1</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>8</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="34">
         <v>8</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="30">
         <v>150</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="25" t="s">
+      <c r="F19" s="24"/>
+      <c r="G19" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+    <row r="20" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="23">
         <v>8</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="23">
         <v>6</v>
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+    <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="23">
         <v>8</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="23">
         <v>6</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF31C60E-BC4A-48BE-966B-8883D6EAE170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE40ECF-7311-4327-8A6F-5E53B47D02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,21 +17,11 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -262,10 +252,6 @@
   </si>
   <si>
     <t>主管覆核日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主管第二次覆核時顯示欄位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -300,6 +286,49 @@
     <t>1:樣態1
 2:樣態2
 3:樣態3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEntryDateRangeFactor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryDate &gt;= ,AND EntryDate &lt;= ,AND Factor = , AND Rational ^i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFactor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryDate &gt;= ,AND EntryDate &lt;= ,AND Factor =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管覆核=N時為覆核當天日期,主管覆核=Y時與主管同意日期相同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程控制序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>流程控制帳務日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlEntdy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,6 +422,14 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <shadow/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -477,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,21 +611,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -600,9 +658,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -943,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -961,10 +1016,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
@@ -976,8 +1031,8 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
@@ -989,10 +1044,10 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1004,10 +1059,10 @@
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="8"/>
@@ -1015,10 +1070,10 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="8"/>
@@ -1026,10 +1081,10 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="8"/>
@@ -1037,10 +1092,10 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="8"/>
@@ -1106,8 +1161,8 @@
         <v>2</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="41" t="s">
-        <v>68</v>
+      <c r="G10" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1184,7 +1239,7 @@
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,7 +1260,7 @@
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1216,7 +1271,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>12</v>
@@ -1226,7 +1281,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1247,25 +1302,25 @@
       </c>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="36">
         <v>8</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36" t="s">
-        <v>61</v>
+      <c r="F18" s="32"/>
+      <c r="G18" s="37" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1286,55 +1341,54 @@
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="23">
-        <v>8</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="B21" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="23">
-        <v>6</v>
-      </c>
-      <c r="G21" s="5"/>
+      <c r="E21" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>14</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>25</v>
@@ -1342,18 +1396,18 @@
       <c r="E22" s="23">
         <v>8</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>12</v>
@@ -1361,14 +1415,55 @@
       <c r="E23" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>16</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="23">
+        <v>8</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>17</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1388,16 +1483,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="92" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -1438,13 +1533,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE40ECF-7311-4327-8A6F-5E53B47D02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0ABC31-84F3-4DD1-B97D-9379A26F422E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2022/8/25長度放大150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1:樣態1
 2:樣態2
 3:樣態3</t>
@@ -306,29 +302,6 @@
   </si>
   <si>
     <t>主管覆核=N時為覆核當天日期,主管覆核=Y時與主管同意日期相同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlowNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程控制序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>流程控制帳務日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlEntdy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -422,14 +395,6 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <shadow/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -514,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,9 +570,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -627,25 +589,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -658,6 +602,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1016,10 +963,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
@@ -1031,8 +978,8 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1044,10 +991,10 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1059,10 +1006,10 @@
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="8"/>
@@ -1070,10 +1017,10 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="8"/>
@@ -1081,10 +1028,10 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="8"/>
@@ -1092,10 +1039,10 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="8"/>
@@ -1129,7 +1076,7 @@
       <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -1161,8 +1108,8 @@
         <v>2</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="33" t="s">
-        <v>67</v>
+      <c r="G10" s="32" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1255,13 +1202,10 @@
       <c r="D15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="30">
-        <v>150</v>
+      <c r="E15" s="36">
+        <v>200</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="22" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="16" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
@@ -1306,21 +1250,21 @@
       <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="35">
         <v>8</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="37" t="s">
-        <v>72</v>
+      <c r="F18" s="31"/>
+      <c r="G18" s="41" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1336,59 +1280,57 @@
       <c r="D19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="30">
-        <v>150</v>
+      <c r="E19" s="36">
+        <v>200</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="24"/>
+      <c r="B20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="23">
+        <v>8</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="39" t="s">
+      <c r="B21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="24"/>
+      <c r="E21" s="23">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>14</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>25</v>
@@ -1396,18 +1338,18 @@
       <c r="E22" s="23">
         <v>8</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>12</v>
@@ -1415,55 +1357,18 @@
       <c r="E23" s="23">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
-        <v>16</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="23">
-        <v>8</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>17</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1544,10 +1449,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>51</v>
@@ -1555,10 +1460,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>51</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0ABC31-84F3-4DD1-B97D-9379A26F422E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DE4E2-6ADF-41BC-B310-3E61ADC10443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -302,6 +302,37 @@
   </si>
   <si>
     <t>主管覆核=N時為覆核當天日期,主管覆核=Y時與主管同意日期相同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimald</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>FlowNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程控制序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程控制帳務日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlEntdy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,6 +426,14 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <shadow/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -479,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,8 +627,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -602,9 +656,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -945,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -963,10 +1014,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
@@ -978,8 +1029,8 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
@@ -991,10 +1042,10 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1006,10 +1057,10 @@
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="8"/>
@@ -1017,10 +1068,10 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="8"/>
@@ -1028,10 +1079,10 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="8"/>
@@ -1039,10 +1090,10 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="8"/>
@@ -1202,7 +1253,7 @@
       <c r="D15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="29">
         <v>200</v>
       </c>
       <c r="F15" s="24"/>
@@ -1241,7 +1292,7 @@
       <c r="D17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="35">
         <v>8</v>
       </c>
       <c r="F17" s="24"/>
@@ -1263,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="31"/>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="36" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1280,57 +1331,56 @@
       <c r="D19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="29">
         <v>200</v>
       </c>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="23">
-        <v>8</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="23">
-        <v>6</v>
-      </c>
-      <c r="G21" s="5"/>
+      <c r="B21" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>14</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>25</v>
@@ -1338,18 +1388,18 @@
       <c r="E22" s="23">
         <v>8</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>12</v>
@@ -1357,18 +1407,55 @@
       <c r="E23" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>16</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="23">
+        <v>8</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>17</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DE4E2-6ADF-41BC-B310-3E61ADC10443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2CE36D-25BC-457C-B888-1CFD4AAA9E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -334,6 +330,9 @@
   <si>
     <t>FlEntdy</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -676,9 +675,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -716,9 +715,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,26 +750,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,26 +785,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -998,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1019,10 +984,10 @@
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -1047,7 +1012,7 @@
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>13</v>
@@ -1128,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>22</v>
@@ -1147,10 +1112,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>14</v>
@@ -1160,7 +1125,7 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1168,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>15</v>
@@ -1187,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>14</v>
@@ -1204,10 +1169,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>34</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>14</v>
@@ -1224,10 +1189,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>12</v>
@@ -1237,7 +1202,7 @@
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,13 +1210,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="29">
         <v>200</v>
@@ -1263,10 +1228,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>12</v>
@@ -1276,7 +1241,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1284,10 +1249,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>22</v>
@@ -1302,10 +1267,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>22</v>
@@ -1315,7 +1280,7 @@
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1323,13 +1288,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="E19" s="29">
         <v>200</v>
@@ -1341,16 +1306,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="40" t="s">
         <v>72</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>73</v>
       </c>
       <c r="F20" s="24"/>
     </row>
@@ -1359,16 +1324,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="D21" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="E21" s="40" t="s">
         <v>76</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>77</v>
       </c>
       <c r="F21" s="24"/>
     </row>
@@ -1383,11 +1348,9 @@
         <v>24</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="23">
-        <v>8</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E22" s="23"/>
       <c r="F22" s="25"/>
       <c r="G22" s="5"/>
     </row>
@@ -1396,10 +1359,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>27</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>12</v>
@@ -1414,17 +1377,15 @@
         <v>16</v>
       </c>
       <c r="B24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>29</v>
-      </c>
       <c r="D24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="23">
-        <v>8</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E24" s="23"/>
       <c r="F24" s="17"/>
       <c r="G24" s="21"/>
     </row>
@@ -1433,10 +1394,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>31</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>12</v>
@@ -1503,57 +1464,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
